--- a/output4.xlsx
+++ b/output4.xlsx
@@ -457,13 +457,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4.297902806</v>
+        <v>11.21052705</v>
       </c>
       <c r="B2" t="n">
-        <v>10.61527426501109</v>
+        <v>17.00251210124755</v>
       </c>
       <c r="C2" t="n">
-        <v>-2.01946865301109</v>
+        <v>5.418541998752447</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -471,27 +471,27 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4.107506887</v>
+        <v>7.948659378</v>
       </c>
       <c r="B3" t="n">
-        <v>18.15021485401109</v>
+        <v>16.54327619174755</v>
       </c>
       <c r="C3" t="n">
-        <v>5.515471935988913</v>
+        <v>4.959306089252447</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4.275535276</v>
+        <v>5.967696944</v>
       </c>
       <c r="B4" t="n">
-        <v>15.05295742819142</v>
+        <v>12.55694769466422</v>
       </c>
       <c r="C4" t="n">
-        <v>2.418214510169241</v>
+        <v>0.9729775921691148</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -499,13 +499,13 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>5.198141157</v>
+        <v>6.683377113</v>
       </c>
       <c r="B5" t="n">
-        <v>13.8546360148512</v>
+        <v>12.49115291207013</v>
       </c>
       <c r="C5" t="n">
-        <v>1.21989309682902</v>
+        <v>0.9071828095750281</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -513,13 +513,13 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4.926113998</v>
+        <v>6.577738762</v>
       </c>
       <c r="B6" t="n">
-        <v>13.07787775752132</v>
+        <v>12.39385395468024</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4431348394991446</v>
+        <v>0.8098838521851395</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -527,13 +527,13 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3.993894896</v>
+        <v>6.018213863</v>
       </c>
       <c r="B7" t="n">
-        <v>12.3279722468227</v>
+        <v>11.92678045881541</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.3067706711994829</v>
+        <v>0.3428103563203102</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -541,13 +541,13 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3.423994542</v>
+        <v>8.599714306999999</v>
       </c>
       <c r="B8" t="n">
-        <v>11.67337121038327</v>
+        <v>13.89884179028634</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.9613717076389063</v>
+        <v>2.314871687791232</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -555,13 +555,13 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>3.033251122</v>
+        <v>8.459801792</v>
       </c>
       <c r="B9" t="n">
-        <v>9.198566363224426</v>
+        <v>12.37903427437157</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3970327896483576</v>
+        <v>4.399398516851154</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -569,13 +569,13 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>3.053722283</v>
+        <v>1.324111409</v>
       </c>
       <c r="B10" t="n">
-        <v>8.637475502886041</v>
+        <v>6.4220470754217</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1523426355949908</v>
+        <v>-0.9478112015212647</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -583,27 +583,27 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-0.813254872</v>
+        <v>-2.310740262</v>
       </c>
       <c r="B11" t="n">
-        <v>7.244741420348179</v>
+        <v>2.258003368374406</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.7887853945466521</v>
+        <v>-4.860344748001872</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-7.163879562</v>
+        <v>-3.708944978</v>
       </c>
       <c r="B12" t="n">
-        <v>4.874894563392345</v>
+        <v>6.78013919462245</v>
       </c>
       <c r="C12" t="n">
-        <v>-2.966296655547614</v>
+        <v>0.3649797441851228</v>
       </c>
       <c r="D12" t="n">
         <v>1</v>
@@ -611,13 +611,13 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-8.994964222</v>
+        <v>-0.698270417</v>
       </c>
       <c r="B13" t="n">
-        <v>2.59338303414127</v>
+        <v>5.108041016740188</v>
       </c>
       <c r="C13" t="n">
-        <v>-4.958154074699615</v>
+        <v>0.202687626247533</v>
       </c>
       <c r="D13" t="n">
         <v>1</v>
@@ -625,41 +625,41 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-9.711583458</v>
+        <v>1.887294819</v>
       </c>
       <c r="B14" t="n">
-        <v>0.3837713928992659</v>
+        <v>3.74324645307914</v>
       </c>
       <c r="C14" t="n">
-        <v>-6.358691661243814</v>
+        <v>1.242381806313157</v>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-8.123272661</v>
+        <v>2.285311791</v>
       </c>
       <c r="B15" t="n">
-        <v>-1.219203829420681</v>
+        <v>2.993115653755859</v>
       </c>
       <c r="C15" t="n">
-        <v>-6.904548063969789</v>
+        <v>1.905693317484445</v>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-6.573386549</v>
+        <v>1.828480969</v>
       </c>
       <c r="B16" t="n">
-        <v>-1.945554450873508</v>
+        <v>2.854058439254239</v>
       </c>
       <c r="C16" t="n">
-        <v>-7.219437045047945</v>
+        <v>1.787323724767175</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -667,27 +667,27 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-5.051753881</v>
+        <v>0.743085592</v>
       </c>
       <c r="B17" t="n">
-        <v>-1.441646552629813</v>
+        <v>2.527486182423298</v>
       </c>
       <c r="C17" t="n">
-        <v>-7.916484594386739</v>
+        <v>1.464577083419573</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-6.062247963</v>
+        <v>1.686324488</v>
       </c>
       <c r="B18" t="n">
-        <v>-1.241280023034702</v>
+        <v>2.463591202619094</v>
       </c>
       <c r="C18" t="n">
-        <v>-8.682869684673623</v>
+        <v>1.4017353481411</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -695,13 +695,13 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-7.259178331</v>
+        <v>2.553274015</v>
       </c>
       <c r="B19" t="n">
-        <v>-1.486747578432181</v>
+        <v>2.580205241451129</v>
       </c>
       <c r="C19" t="n">
-        <v>-9.373099546288838</v>
+        <v>1.537919614570529</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -709,13 +709,13 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-8.1014856</v>
+        <v>2.337645109</v>
       </c>
       <c r="B20" t="n">
-        <v>-1.929401198864611</v>
+        <v>2.62297580665723</v>
       </c>
       <c r="C20" t="n">
-        <v>-10.01469643755366</v>
+        <v>1.608211523735933</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -723,13 +723,13 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-8.160331054</v>
+        <v>2.362063194</v>
       </c>
       <c r="B21" t="n">
-        <v>-2.133060429636789</v>
+        <v>2.688636252691455</v>
       </c>
       <c r="C21" t="n">
-        <v>-10.69655947778835</v>
+        <v>1.642288786718532</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -737,13 +737,13 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>-7.558130602</v>
+        <v>2.589020926</v>
       </c>
       <c r="B22" t="n">
-        <v>-2.099115877496032</v>
+        <v>2.775839825515432</v>
       </c>
       <c r="C22" t="n">
-        <v>-11.19208966528584</v>
+        <v>1.72608577823599</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -751,13 +751,13 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-6.965442356</v>
+        <v>2.442400073</v>
       </c>
       <c r="B23" t="n">
-        <v>-2.031918190211066</v>
+        <v>2.807498406590145</v>
       </c>
       <c r="C23" t="n">
-        <v>-11.38817420351597</v>
+        <v>1.771571328832484</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -765,13 +765,13 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>-6.635990188</v>
+        <v>2.308250161</v>
       </c>
       <c r="B24" t="n">
-        <v>-1.957717849275319</v>
+        <v>2.806673027711232</v>
       </c>
       <c r="C24" t="n">
-        <v>-11.43257624277999</v>
+        <v>1.779927277665809</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -779,13 +779,13 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-7.448693509</v>
+        <v>2.484230445</v>
       </c>
       <c r="B25" t="n">
-        <v>-2.082914405960111</v>
+        <v>2.836514314307057</v>
       </c>
       <c r="C25" t="n">
-        <v>-11.6102284340609</v>
+        <v>1.82682047635597</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -793,13 +793,13 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>-7.298693582</v>
+        <v>2.467916249</v>
       </c>
       <c r="B26" t="n">
-        <v>-2.15993859465337</v>
+        <v>2.853108507661604</v>
       </c>
       <c r="C26" t="n">
-        <v>-11.71473892880709</v>
+        <v>1.864932498708385</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -807,13 +807,13 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-6.218080515</v>
+        <v>2.265717391</v>
       </c>
       <c r="B27" t="n">
-        <v>-2.012902328948505</v>
+        <v>2.84511922749261</v>
       </c>
       <c r="C27" t="n">
-        <v>-11.57319972999496</v>
+        <v>1.835487395521932</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -821,13 +821,13 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>-7.205052963</v>
+        <v>2.345980347</v>
       </c>
       <c r="B28" t="n">
-        <v>-2.055749616523901</v>
+        <v>2.891985903818606</v>
       </c>
       <c r="C28" t="n">
-        <v>-11.69555264541248</v>
+        <v>1.790897037192226</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -835,13 +835,13 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-8.606778362</v>
+        <v>2.481939348</v>
       </c>
       <c r="B29" t="n">
-        <v>-2.399024671618315</v>
+        <v>2.927656251974124</v>
       </c>
       <c r="C29" t="n">
-        <v>-12.04607047333839</v>
+        <v>1.811534755675521</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -849,13 +849,13 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>-9.968485556999999</v>
+        <v>2.607069332</v>
       </c>
       <c r="B30" t="n">
-        <v>-2.938614276451086</v>
+        <v>2.975460311184782</v>
       </c>
       <c r="C30" t="n">
-        <v>-12.60655834976473</v>
+        <v>1.858867444722279</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -863,13 +863,13 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>-7.085385818</v>
+        <v>2.566738931</v>
       </c>
       <c r="B31" t="n">
-        <v>-2.740093620969267</v>
+        <v>3.006899295865952</v>
       </c>
       <c r="C31" t="n">
-        <v>-12.52985810022541</v>
+        <v>1.887332639041401</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -877,41 +877,41 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.497321595</v>
+        <v>2.343220247</v>
       </c>
       <c r="B32" t="n">
-        <v>-1.005512552440122</v>
+        <v>2.988643754666108</v>
       </c>
       <c r="C32" t="n">
-        <v>-11.00829545797703</v>
+        <v>1.863988693923993</v>
       </c>
       <c r="D32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>3.160064486</v>
+        <v>1.829974148</v>
       </c>
       <c r="B33" t="n">
-        <v>0.9080692309086764</v>
+        <v>2.86968610047714</v>
       </c>
       <c r="C33" t="n">
-        <v>-9.252182413060085</v>
+        <v>1.744220379396484</v>
       </c>
       <c r="D33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>4.34747041</v>
+        <v>1.403278055</v>
       </c>
       <c r="B34" t="n">
-        <v>2.513319746343849</v>
+        <v>2.697707502710303</v>
       </c>
       <c r="C34" t="n">
-        <v>-7.447460801458178</v>
+        <v>1.554499649003373</v>
       </c>
       <c r="D34" t="n">
         <v>1</v>
@@ -919,41 +919,41 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>3.906713162</v>
+        <v>2.169038258</v>
       </c>
       <c r="B35" t="n">
-        <v>3.244369438367346</v>
+        <v>2.719036413510783</v>
       </c>
       <c r="C35" t="n">
-        <v>-5.62770360490546</v>
+        <v>1.550353323666069</v>
       </c>
       <c r="D35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>3.9182366</v>
+        <v>2.562983485</v>
       </c>
       <c r="B36" t="n">
-        <v>3.845978609935329</v>
+        <v>2.833876108995734</v>
       </c>
       <c r="C36" t="n">
-        <v>-4.184521837418226</v>
+        <v>1.606898596748395</v>
       </c>
       <c r="D36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>4.5038086</v>
+        <v>2.485009706</v>
       </c>
       <c r="B37" t="n">
-        <v>4.613426776888995</v>
+        <v>2.907223379729341</v>
       </c>
       <c r="C37" t="n">
-        <v>-3.082131121465459</v>
+        <v>1.639434628362096</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -961,13 +961,13 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>3.922536725</v>
+        <v>2.763526463</v>
       </c>
       <c r="B38" t="n">
-        <v>5.181685553571281</v>
+        <v>3.00450328662549</v>
       </c>
       <c r="C38" t="n">
-        <v>-2.387306424014712</v>
+        <v>1.738284623281312</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -975,13 +975,13 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>3.219539584</v>
+        <v>3.077937545</v>
       </c>
       <c r="B39" t="n">
-        <v>5.317196716923762</v>
+        <v>3.131975145613946</v>
       </c>
       <c r="C39" t="n">
-        <v>-1.793726153312001</v>
+        <v>1.893488909849998</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -989,13 +989,13 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>5.122504985</v>
+        <v>2.582199132</v>
       </c>
       <c r="B40" t="n">
-        <v>5.671076452778488</v>
+        <v>3.073721920504842</v>
       </c>
       <c r="C40" t="n">
-        <v>-0.8030746093117798</v>
+        <v>1.979533594314541</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -1003,69 +1003,69 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>6.875159051</v>
+        <v>2.403995084</v>
       </c>
       <c r="B41" t="n">
-        <v>6.377591827813017</v>
+        <v>3.085168268708578</v>
       </c>
       <c r="C41" t="n">
-        <v>0.2671094312206748</v>
+        <v>1.919027655608813</v>
       </c>
       <c r="D41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>8.408609085</v>
+        <v>2.688861988</v>
       </c>
       <c r="B42" t="n">
-        <v>7.294141557304334</v>
+        <v>3.169369884591095</v>
       </c>
       <c r="C42" t="n">
-        <v>1.385279452439118</v>
+        <v>1.909539594970761</v>
       </c>
       <c r="D42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>9.058774035000001</v>
+        <v>2.465971653</v>
       </c>
       <c r="B43" t="n">
-        <v>8.188073658501093</v>
+        <v>3.179353280842851</v>
       </c>
       <c r="C43" t="n">
-        <v>2.379133358366357</v>
+        <v>1.870160463294027</v>
       </c>
       <c r="D43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>9.207786695999999</v>
+        <v>2.114452035</v>
       </c>
       <c r="B44" t="n">
-        <v>8.954142122912014</v>
+        <v>3.097532278186819</v>
       </c>
       <c r="C44" t="n">
-        <v>3.182845002680134</v>
+        <v>1.787848360802381</v>
       </c>
       <c r="D44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>6.137022001</v>
+        <v>2.888600419</v>
       </c>
       <c r="B45" t="n">
-        <v>8.963005699237623</v>
+        <v>3.175932654325536</v>
       </c>
       <c r="C45" t="n">
-        <v>3.201394294134578</v>
+        <v>1.887821736056595</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -1073,13 +1073,13 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>4.061862365</v>
+        <v>3.072815944</v>
       </c>
       <c r="B46" t="n">
-        <v>8.482007592450479</v>
+        <v>3.260936054896019</v>
       </c>
       <c r="C46" t="n">
-        <v>2.874222147468183</v>
+        <v>2.019203259902389</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -1087,13 +1087,13 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>3.661129419</v>
+        <v>2.264871662</v>
       </c>
       <c r="B47" t="n">
-        <v>8.070861229342066</v>
+        <v>3.226664721746741</v>
       </c>
       <c r="C47" t="n">
-        <v>2.478546216539113</v>
+        <v>1.903390165212949</v>
       </c>
       <c r="D47" t="n">
         <v>0</v>
@@ -1101,13 +1101,13 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>3.938180858</v>
+        <v>2.015678228</v>
       </c>
       <c r="B48" t="n">
-        <v>7.771538333996306</v>
+        <v>3.165554604936053</v>
       </c>
       <c r="C48" t="n">
-        <v>2.243245062765267</v>
+        <v>1.744754470212501</v>
       </c>
       <c r="D48" t="n">
         <v>0</v>
@@ -1115,13 +1115,13 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>4.507921673</v>
+        <v>2.009047328</v>
       </c>
       <c r="B49" t="n">
-        <v>7.541970050362837</v>
+        <v>3.099376703891639</v>
       </c>
       <c r="C49" t="n">
-        <v>2.273020880725552</v>
+        <v>1.632485507929175</v>
       </c>
       <c r="D49" t="n">
         <v>0</v>
@@ -1129,13 +1129,13 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>4.794941523</v>
+        <v>1.843338861</v>
       </c>
       <c r="B50" t="n">
-        <v>7.260938881660675</v>
+        <v>2.993531179713119</v>
       </c>
       <c r="C50" t="n">
-        <v>2.509029669183933</v>
+        <v>1.529290404734118</v>
       </c>
       <c r="D50" t="n">
         <v>0</v>
@@ -1143,13 +1143,13 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>5.110658718</v>
+        <v>1.903228047</v>
       </c>
       <c r="B51" t="n">
-        <v>6.931547735951321</v>
+        <v>2.921775039523627</v>
       </c>
       <c r="C51" t="n">
-        <v>2.928691880316064</v>
+        <v>1.457771401942991</v>
       </c>
       <c r="D51" t="n">
         <v>0</v>
@@ -1157,13 +1157,13 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>5.482335733</v>
+        <v>2.403032659</v>
       </c>
       <c r="B52" t="n">
-        <v>6.571874796552631</v>
+        <v>2.955406113359589</v>
       </c>
       <c r="C52" t="n">
-        <v>3.50925371176657</v>
+        <v>1.509445077421759</v>
       </c>
       <c r="D52" t="n">
         <v>0</v>
@@ -1171,13 +1171,13 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>5.482084506</v>
+        <v>2.757170016</v>
       </c>
       <c r="B53" t="n">
-        <v>6.612643813630866</v>
+        <v>3.048427958719028</v>
       </c>
       <c r="C53" t="n">
-        <v>3.645094408645658</v>
+        <v>1.626322917610638</v>
       </c>
       <c r="D53" t="n">
         <v>0</v>
@@ -1185,13 +1185,13 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>5.291100847</v>
+        <v>3.036606216</v>
       </c>
       <c r="B54" t="n">
-        <v>6.665399739673213</v>
+        <v>3.17980431917529</v>
       </c>
       <c r="C54" t="n">
-        <v>3.657231651155365</v>
+        <v>1.774640912157232</v>
       </c>
       <c r="D54" t="n">
         <v>0</v>
@@ -1199,27 +1199,27 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>5.166742163</v>
+        <v>3.452761437</v>
       </c>
       <c r="B55" t="n">
-        <v>6.649924547658737</v>
+        <v>3.409021651539183</v>
       </c>
       <c r="C55" t="n">
-        <v>3.674877442893465</v>
+        <v>1.935641389542706</v>
       </c>
       <c r="D55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>5.151367145</v>
+        <v>3.531578468</v>
       </c>
       <c r="B56" t="n">
-        <v>6.563875795490334</v>
+        <v>3.625410696716509</v>
       </c>
       <c r="C56" t="n">
-        <v>3.756512634310064</v>
+        <v>2.06295273076877</v>
       </c>
       <c r="D56" t="n">
         <v>0</v>
@@ -1227,13 +1227,13 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>5.381616203</v>
+        <v>2.836644834</v>
       </c>
       <c r="B57" t="n">
-        <v>6.480431258110622</v>
+        <v>3.621555853317098</v>
       </c>
       <c r="C57" t="n">
-        <v>3.92852629830614</v>
+        <v>2.063792810991558</v>
       </c>
       <c r="D57" t="n">
         <v>0</v>
@@ -1241,13 +1241,13 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>5.270667509</v>
+        <v>2.636729979</v>
       </c>
       <c r="B58" t="n">
-        <v>6.533061438215234</v>
+        <v>3.649112128069105</v>
       </c>
       <c r="C58" t="n">
-        <v>3.902371689763675</v>
+        <v>1.953858548407704</v>
       </c>
       <c r="D58" t="n">
         <v>0</v>
@@ -1255,13 +1255,13 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>4.956844477</v>
+        <v>2.731150615</v>
       </c>
       <c r="B59" t="n">
-        <v>6.613706435624279</v>
+        <v>3.645296083616842</v>
       </c>
       <c r="C59" t="n">
-        <v>3.717377607692432</v>
+        <v>1.929540636197164</v>
       </c>
       <c r="D59" t="n">
         <v>0</v>
@@ -1269,13 +1269,13 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>6.346578593</v>
+        <v>3.002098395</v>
       </c>
       <c r="B60" t="n">
-        <v>6.989379195372854</v>
+        <v>3.671458575969921</v>
       </c>
       <c r="C60" t="n">
-        <v>3.814120381448887</v>
+        <v>1.989250322379697</v>
       </c>
       <c r="D60" t="n">
         <v>0</v>
@@ -1283,13 +1283,13 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>7.452013408</v>
+        <v>3.282562436</v>
       </c>
       <c r="B61" t="n">
-        <v>7.490282996332368</v>
+        <v>3.747778722994472</v>
       </c>
       <c r="C61" t="n">
-        <v>4.133323285134894</v>
+        <v>2.093813647288337</v>
       </c>
       <c r="D61" t="n">
         <v>0</v>
@@ -1297,13 +1297,13 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>7.548127251</v>
+        <v>3.563186246</v>
       </c>
       <c r="B62" t="n">
-        <v>7.869989155493645</v>
+        <v>3.873910099411866</v>
       </c>
       <c r="C62" t="n">
-        <v>4.448147621572074</v>
+        <v>2.224638610241936</v>
       </c>
       <c r="D62" t="n">
         <v>0</v>
@@ -1311,13 +1311,13 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>6.610006805</v>
+        <v>2.831904531</v>
       </c>
       <c r="B63" t="n">
-        <v>7.959061492718869</v>
+        <v>3.83040494848718</v>
       </c>
       <c r="C63" t="n">
-        <v>4.539450827845526</v>
+        <v>2.181195746357497</v>
       </c>
       <c r="D63" t="n">
         <v>0</v>
@@ -1325,41 +1325,41 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>4.962697133</v>
+        <v>1.406744742</v>
       </c>
       <c r="B64" t="n">
-        <v>7.718957146557613</v>
+        <v>3.511658460901557</v>
       </c>
       <c r="C64" t="n">
-        <v>4.264931159300489</v>
+        <v>1.860319489902055</v>
       </c>
       <c r="D64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>4.773546834</v>
+        <v>1.690344095</v>
       </c>
       <c r="B65" t="n">
-        <v>7.95097754638828</v>
+        <v>3.277113947524305</v>
       </c>
       <c r="C65" t="n">
-        <v>3.545551525977851</v>
+        <v>1.696605801127859</v>
       </c>
       <c r="D65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>4.841217025</v>
+        <v>2.079214082</v>
       </c>
       <c r="B66" t="n">
-        <v>8.575484000680149</v>
+        <v>3.171732277675357</v>
       </c>
       <c r="C66" t="n">
-        <v>2.55822588501652</v>
+        <v>1.638929072163642</v>
       </c>
       <c r="D66" t="n">
         <v>0</v>
@@ -1367,13 +1367,13 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>5.300405643</v>
+        <v>2.297894698</v>
       </c>
       <c r="B67" t="n">
-        <v>9.022221517567806</v>
+        <v>3.141433856064424</v>
       </c>
       <c r="C67" t="n">
-        <v>2.004908605372762</v>
+        <v>1.626253085742472</v>
       </c>
       <c r="D67" t="n">
         <v>0</v>
@@ -1381,13 +1381,13 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>5.886587538</v>
+        <v>2.206038468</v>
       </c>
       <c r="B68" t="n">
-        <v>9.263930274989207</v>
+        <v>3.10755367980466</v>
       </c>
       <c r="C68" t="n">
-        <v>1.912408886517182</v>
+        <v>1.589011237983119</v>
       </c>
       <c r="D68" t="n">
         <v>0</v>
@@ -1395,13 +1395,13 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>6.572824742</v>
+        <v>1.869516846</v>
       </c>
       <c r="B69" t="n">
-        <v>9.480996445549549</v>
+        <v>3.018994180479547</v>
       </c>
       <c r="C69" t="n">
-        <v>2.089204881721499</v>
+        <v>1.486064442912476</v>
       </c>
       <c r="D69" t="n">
         <v>0</v>
@@ -1409,13 +1409,13 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>9.475805248</v>
+        <v>2.35466384</v>
       </c>
       <c r="B70" t="n">
-        <v>10.2516576033924</v>
+        <v>3.055091633914136</v>
       </c>
       <c r="C70" t="n">
-        <v>2.79482586127806</v>
+        <v>1.490820809202627</v>
       </c>
       <c r="D70" t="n">
         <v>0</v>
@@ -1423,27 +1423,27 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>11.4587055</v>
+        <v>2.740761162</v>
       </c>
       <c r="B71" t="n">
-        <v>11.30952023678092</v>
+        <v>3.144627726471677</v>
       </c>
       <c r="C71" t="n">
-        <v>3.711149059808625</v>
+        <v>1.588406723612744</v>
       </c>
       <c r="D71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>8.669194392</v>
+        <v>2.305694425</v>
       </c>
       <c r="B72" t="n">
-        <v>11.5923531108171</v>
+        <v>3.116294339125513</v>
       </c>
       <c r="C72" t="n">
-        <v>3.891860144275633</v>
+        <v>1.592410987739329</v>
       </c>
       <c r="D72" t="n">
         <v>0</v>
@@ -1451,13 +1451,13 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>5.811886291</v>
+        <v>2.021173603</v>
       </c>
       <c r="B73" t="n">
-        <v>11.24225863474544</v>
+        <v>2.999449064430547</v>
       </c>
       <c r="C73" t="n">
-        <v>3.469866404418373</v>
+        <v>1.575984624226185</v>
       </c>
       <c r="D73" t="n">
         <v>0</v>
@@ -1465,13 +1465,13 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>2.893342197</v>
+        <v>1.872629735</v>
       </c>
       <c r="B74" t="n">
-        <v>10.38195930858227</v>
+        <v>2.862096100533615</v>
       </c>
       <c r="C74" t="n">
-        <v>2.545077451155384</v>
+        <v>1.547302730403362</v>
       </c>
       <c r="D74" t="n">
         <v>0</v>
@@ -1479,13 +1479,13 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>1.951074347</v>
+        <v>2.270846337</v>
       </c>
       <c r="B75" t="n">
-        <v>9.506245537351813</v>
+        <v>2.852203999046059</v>
       </c>
       <c r="C75" t="n">
-        <v>1.615813487583055</v>
+        <v>1.58365360228684</v>
       </c>
       <c r="D75" t="n">
         <v>0</v>
@@ -1493,13 +1493,13 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>1.440571325</v>
+        <v>2.638833916</v>
       </c>
       <c r="B76" t="n">
-        <v>8.653144043582753</v>
+        <v>2.814008005963018</v>
       </c>
       <c r="C76" t="n">
-        <v>0.8207316174952708</v>
+        <v>1.790211650581365</v>
       </c>
       <c r="D76" t="n">
         <v>0</v>
@@ -1507,13 +1507,13 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>1.30264031</v>
+        <v>2.376456545</v>
       </c>
       <c r="B77" t="n">
-        <v>7.932606492209471</v>
+        <v>2.746147829878779</v>
       </c>
       <c r="C77" t="n">
-        <v>0.1675501013963197</v>
+        <v>1.887810514639533</v>
       </c>
       <c r="D77" t="n">
         <v>0</v>
@@ -1521,13 +1521,13 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>1.491102862</v>
+        <v>2.388530446</v>
       </c>
       <c r="B78" t="n">
-        <v>7.432134216296064</v>
+        <v>2.730076922079274</v>
       </c>
       <c r="C78" t="n">
-        <v>-0.3555678319342315</v>
+        <v>1.932501932923033</v>
       </c>
       <c r="D78" t="n">
         <v>0</v>
@@ -1535,13 +1535,13 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>2.017213933</v>
+        <v>2.684519458</v>
       </c>
       <c r="B79" t="n">
-        <v>7.180587189338557</v>
+        <v>2.795082497207622</v>
       </c>
       <c r="C79" t="n">
-        <v>-0.7124485254459465</v>
+        <v>2.00878837389487</v>
       </c>
       <c r="D79" t="n">
         <v>0</v>
@@ -1549,13 +1549,13 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>1.504152508</v>
+        <v>2.464223637</v>
       </c>
       <c r="B80" t="n">
-        <v>6.914963114640141</v>
+        <v>2.806350790989372</v>
       </c>
       <c r="C80" t="n">
-        <v>-1.138791195608544</v>
+        <v>2.02243536124289</v>
       </c>
       <c r="D80" t="n">
         <v>0</v>
@@ -1563,13 +1563,13 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>0.883792067</v>
+        <v>2.204790114</v>
       </c>
       <c r="B81" t="n">
-        <v>6.60100797965859</v>
+        <v>2.759010328524459</v>
       </c>
       <c r="C81" t="n">
-        <v>-1.626553631798435</v>
+        <v>1.985934637380006</v>
       </c>
       <c r="D81" t="n">
         <v>0</v>
@@ -1577,13 +1577,13 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>1.097566465</v>
+        <v>2.450113613</v>
       </c>
       <c r="B82" t="n">
-        <v>6.384383949195668</v>
+        <v>2.750915827896416</v>
       </c>
       <c r="C82" t="n">
-        <v>-1.965793892764561</v>
+        <v>2.025085590466132</v>
       </c>
       <c r="D82" t="n">
         <v>0</v>
@@ -1591,13 +1591,13 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>1.432836503</v>
+        <v>2.477321458</v>
       </c>
       <c r="B83" t="n">
-        <v>6.014501348619522</v>
+        <v>2.772427563261611</v>
       </c>
       <c r="C83" t="n">
-        <v>-1.906494705786658</v>
+        <v>2.039302155032436</v>
       </c>
       <c r="D83" t="n">
         <v>0</v>
@@ -1605,13 +1605,13 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>1.912101374</v>
+        <v>2.246021863</v>
       </c>
       <c r="B84" t="n">
-        <v>5.399177089564216</v>
+        <v>2.755754221643563</v>
       </c>
       <c r="C84" t="n">
-        <v>-1.347931226211398</v>
+        <v>1.992038297613283</v>
       </c>
       <c r="D84" t="n">
         <v>0</v>
@@ -1619,13 +1619,13 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>2.929906574</v>
+        <v>2.606103379</v>
       </c>
       <c r="B85" t="n">
-        <v>5.380682781254335</v>
+        <v>2.810638135879047</v>
       </c>
       <c r="C85" t="n">
-        <v>-0.9677234583543592</v>
+        <v>2.030037231798623</v>
       </c>
       <c r="D85" t="n">
         <v>0</v>
@@ -1633,55 +1633,55 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>4.517312868</v>
+        <v>3.01746007</v>
       </c>
       <c r="B86" t="n">
-        <v>6.283823355302866</v>
+        <v>2.92677866911862</v>
       </c>
       <c r="C86" t="n">
-        <v>-0.9465307444313606</v>
+        <v>2.152745654406357</v>
       </c>
       <c r="D86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>9.791795905000001</v>
+        <v>2.405437381</v>
       </c>
       <c r="B87" t="n">
-        <v>8.329476928161309</v>
+        <v>2.885272218489738</v>
       </c>
       <c r="C87" t="n">
-        <v>-0.1429244642672352</v>
+        <v>2.140522192481384</v>
       </c>
       <c r="D87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>11.9137123</v>
+        <v>2.13879304</v>
       </c>
       <c r="B88" t="n">
-        <v>10.10428233327619</v>
+        <v>2.779221862796365</v>
       </c>
       <c r="C88" t="n">
-        <v>1.210444569430043</v>
+        <v>2.096930881426059</v>
       </c>
       <c r="D88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>9.748138051</v>
+        <v>2.341863252</v>
       </c>
       <c r="B89" t="n">
-        <v>10.86247680868587</v>
+        <v>2.760268122422126</v>
       </c>
       <c r="C89" t="n">
-        <v>2.088559938729589</v>
+        <v>2.077399373641732</v>
       </c>
       <c r="D89" t="n">
         <v>0</v>
@@ -1689,13 +1689,13 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>6.632776884</v>
+        <v>2.22230147</v>
       </c>
       <c r="B90" t="n">
-        <v>10.90467643184658</v>
+        <v>2.708141912406546</v>
       </c>
       <c r="C90" t="n">
-        <v>2.109263719834957</v>
+        <v>2.050912672258115</v>
       </c>
       <c r="D90" t="n">
         <v>0</v>
@@ -1703,13 +1703,13 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>3.454123564</v>
+        <v>2.011407656</v>
       </c>
       <c r="B91" t="n">
-        <v>10.32251012405114</v>
+        <v>2.630062997432484</v>
       </c>
       <c r="C91" t="n">
-        <v>1.470291420577421</v>
+        <v>1.981743732419896</v>
       </c>
       <c r="D91" t="n">
         <v>0</v>
@@ -1717,13 +1717,13 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>3.857329331</v>
+        <v>2.057035879</v>
       </c>
       <c r="B92" t="n">
-        <v>9.933785134044765</v>
+        <v>2.593558072608147</v>
       </c>
       <c r="C92" t="n">
-        <v>1.043387832820197</v>
+        <v>1.918701662722674</v>
       </c>
       <c r="D92" t="n">
         <v>0</v>
@@ -1731,13 +1731,13 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>4.864483444</v>
+        <v>2.001622601</v>
       </c>
       <c r="B93" t="n">
-        <v>9.813779908270089</v>
+        <v>2.57630566978929</v>
       </c>
       <c r="C93" t="n">
-        <v>0.9137518425187743</v>
+        <v>1.834151158751761</v>
       </c>
       <c r="D93" t="n">
         <v>0</v>
@@ -1745,13 +1745,13 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>6.816948012</v>
+        <v>1.788057408</v>
       </c>
       <c r="B94" t="n">
-        <v>10.09875151818515</v>
+        <v>2.551742877752504</v>
       </c>
       <c r="C94" t="n">
-        <v>1.210053087810553</v>
+        <v>1.691845548118251</v>
       </c>
       <c r="D94" t="n">
         <v>0</v>
@@ -1759,13 +1759,13 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>7.579040759</v>
+        <v>1.731726121</v>
       </c>
       <c r="B95" t="n">
-        <v>11.14783692116153</v>
+        <v>2.503602885771022</v>
       </c>
       <c r="C95" t="n">
-        <v>0.9308230678332619</v>
+        <v>1.583958303204338</v>
       </c>
       <c r="D95" t="n">
         <v>0</v>
@@ -1773,13 +1773,13 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>7.81365701</v>
+        <v>1.725052878</v>
       </c>
       <c r="B96" t="n">
-        <v>11.50270232448265</v>
+        <v>2.439857342433859</v>
       </c>
       <c r="C96" t="n">
-        <v>1.285688471154387</v>
+        <v>1.520212759867174</v>
       </c>
       <c r="D96" t="n">
         <v>0</v>
@@ -1787,72 +1787,72 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>6.74698235</v>
+        <v>1.319828485</v>
       </c>
       <c r="B97" t="n">
-        <v>11.57325971495404</v>
+        <v>2.307816029138088</v>
       </c>
       <c r="C97" t="n">
-        <v>1.356245861625773</v>
+        <v>1.388171446571403</v>
       </c>
       <c r="D97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>5.783474455</v>
+        <v>0.885072248</v>
       </c>
       <c r="B98" t="n">
-        <v>11.43700404824185</v>
+        <v>2.115231731090518</v>
       </c>
       <c r="C98" t="n">
-        <v>1.219990194913582</v>
+        <v>1.195587148523833</v>
       </c>
       <c r="D98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>5.006649278</v>
+        <v>0.396877437</v>
       </c>
       <c r="B99" t="n">
-        <v>11.17263447944216</v>
+        <v>1.863525330448968</v>
       </c>
       <c r="C99" t="n">
-        <v>0.9556206261138938</v>
+        <v>0.943880747882283</v>
       </c>
       <c r="D99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>5.177288027</v>
+        <v>-1.72207763</v>
       </c>
       <c r="B100" t="n">
-        <v>10.99526657424139</v>
+        <v>1.23836919645666</v>
       </c>
       <c r="C100" t="n">
-        <v>0.7782527209131267</v>
+        <v>0.3187246138899749</v>
       </c>
       <c r="D100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>5.797972142</v>
+        <v>-4.615643819</v>
       </c>
       <c r="B101" t="n">
-        <v>10.97750907312232</v>
+        <v>0.1595310514022332</v>
       </c>
       <c r="C101" t="n">
-        <v>0.7604952197940564</v>
+        <v>-0.7601135311644516</v>
       </c>
       <c r="D101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/output4.xlsx
+++ b/output4.xlsx
@@ -474,13 +474,13 @@
         <v>7.948659378</v>
       </c>
       <c r="B3" t="n">
-        <v>16.54327619174755</v>
+        <v>37.92282102374757</v>
       </c>
       <c r="C3" t="n">
-        <v>4.959306089252447</v>
+        <v>26.33885092125247</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -488,13 +488,13 @@
         <v>5.967696944</v>
       </c>
       <c r="B4" t="n">
-        <v>12.55694769466422</v>
+        <v>27.60897923191013</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9729775921691148</v>
+        <v>16.02500912941503</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -502,13 +502,13 @@
         <v>6.683377113</v>
       </c>
       <c r="B5" t="n">
-        <v>12.49115291207013</v>
+        <v>22.37465452498756</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9071828095750281</v>
+        <v>10.79068442249246</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -516,13 +516,13 @@
         <v>6.577738762</v>
       </c>
       <c r="B6" t="n">
-        <v>12.39385395468024</v>
+        <v>19.28268638442806</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8098838521851395</v>
+        <v>7.698716281932958</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -530,10 +530,10 @@
         <v>6.018213863</v>
       </c>
       <c r="B7" t="n">
-        <v>11.92678045881541</v>
+        <v>17.21448853147695</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3428103563203102</v>
+        <v>5.630518428981844</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -544,10 +544,10 @@
         <v>8.599714306999999</v>
       </c>
       <c r="B8" t="n">
-        <v>13.89884179028634</v>
+        <v>16.33447000594078</v>
       </c>
       <c r="C8" t="n">
-        <v>2.314871687791232</v>
+        <v>4.750499903445673</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -558,10 +558,10 @@
         <v>8.459801792</v>
       </c>
       <c r="B9" t="n">
-        <v>12.37903427437157</v>
+        <v>13.99822573530404</v>
       </c>
       <c r="C9" t="n">
-        <v>4.399398516851154</v>
+        <v>6.01858997778362</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -572,13 +572,13 @@
         <v>1.324111409</v>
       </c>
       <c r="B10" t="n">
-        <v>6.4220470754217</v>
+        <v>12.00630495550615</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.9478112015212647</v>
+        <v>4.636446678563183</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -586,13 +586,13 @@
         <v>-2.310740262</v>
       </c>
       <c r="B11" t="n">
-        <v>2.258003368374406</v>
+        <v>9.71297537429149</v>
       </c>
       <c r="C11" t="n">
-        <v>-4.860344748001872</v>
+        <v>2.594627257915212</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
